--- a/biology/Médecine/Missions_d'enseignement,_de_recherche,_de_référence_et_d'innovation/Missions_d'enseignement,_de_recherche,_de_référence_et_d'innovation.xlsx
+++ b/biology/Médecine/Missions_d'enseignement,_de_recherche,_de_référence_et_d'innovation/Missions_d'enseignement,_de_recherche,_de_référence_et_d'innovation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Missions_d%27enseignement,_de_recherche,_de_r%C3%A9f%C3%A9rence_et_d%27innovation</t>
+          <t>Missions_d'enseignement,_de_recherche,_de_référence_et_d'innovation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dans le domaine de la santé en France, les missions d’enseignement, de recherche, de référence et d’innovation (MERRI) sont l'une des trois grandes catégories de missions financées par la dotation pour les missions d'intérêt général et d'aide à la contractualisation (MIGAC).
 Les MERRI correspondent globalement aux activités universitaires de recherche et d’enseignement qui donnaient lieu avant la tarification à l'activité (T2A) à un abattement forfaitaire de 13 % dans le calcul du coût du point ISA (indice synthétique d’activité), coût qui était alors utilisé pour moduler la dotation globale des établissements hospitaliers. 
